--- a/PCB&Schematic/SDHCalFEB/Capture/Pad30x30V2.xlsx
+++ b/PCB&Schematic/SDHCalFEB/Capture/Pad30x30V2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1073">
   <si>
     <t>A1</t>
   </si>
@@ -1792,6 +1792,1478 @@
   </si>
   <si>
     <t>R25</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>U22</t>
+  </si>
+  <si>
+    <t>U30</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>U21</t>
+  </si>
+  <si>
+    <t>U29</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>U23</t>
+  </si>
+  <si>
+    <t>U31</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>U24</t>
+  </si>
+  <si>
+    <t>U32</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>U28</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>U27</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>U26</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>U25</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V13</t>
+  </si>
+  <si>
+    <t>V21</t>
+  </si>
+  <si>
+    <t>V29</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V14</t>
+  </si>
+  <si>
+    <t>V22</t>
+  </si>
+  <si>
+    <t>V30</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V11</t>
+  </si>
+  <si>
+    <t>V19</t>
+  </si>
+  <si>
+    <t>V27</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>V18</t>
+  </si>
+  <si>
+    <t>V26</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>V17</t>
+  </si>
+  <si>
+    <t>V25</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V15</t>
+  </si>
+  <si>
+    <t>V23</t>
+  </si>
+  <si>
+    <t>V31</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>V20</t>
+  </si>
+  <si>
+    <t>V28</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V16</t>
+  </si>
+  <si>
+    <t>V24</t>
+  </si>
+  <si>
+    <t>V32</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>W16</t>
+  </si>
+  <si>
+    <t>W24</t>
+  </si>
+  <si>
+    <t>W32</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>W13</t>
+  </si>
+  <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>W29</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>W15</t>
+  </si>
+  <si>
+    <t>W23</t>
+  </si>
+  <si>
+    <t>W31</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>W20</t>
+  </si>
+  <si>
+    <t>W28</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>W17</t>
+  </si>
+  <si>
+    <t>W25</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W18</t>
+  </si>
+  <si>
+    <t>W26</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W19</t>
+  </si>
+  <si>
+    <t>W27</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W14</t>
+  </si>
+  <si>
+    <t>W22</t>
+  </si>
+  <si>
+    <t>W30</t>
+  </si>
+  <si>
+    <t>Y8</t>
+  </si>
+  <si>
+    <t>Y16</t>
+  </si>
+  <si>
+    <t>Y24</t>
+  </si>
+  <si>
+    <t>Y32</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Y13</t>
+  </si>
+  <si>
+    <t>Y21</t>
+  </si>
+  <si>
+    <t>Y29</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>Y15</t>
+  </si>
+  <si>
+    <t>Y23</t>
+  </si>
+  <si>
+    <t>Y31</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y12</t>
+  </si>
+  <si>
+    <t>Y20</t>
+  </si>
+  <si>
+    <t>Y28</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y9</t>
+  </si>
+  <si>
+    <t>Y17</t>
+  </si>
+  <si>
+    <t>Y25</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y10</t>
+  </si>
+  <si>
+    <t>Y18</t>
+  </si>
+  <si>
+    <t>Y26</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y11</t>
+  </si>
+  <si>
+    <t>Y19</t>
+  </si>
+  <si>
+    <t>Y27</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>Y14</t>
+  </si>
+  <si>
+    <t>Y22</t>
+  </si>
+  <si>
+    <t>Y30</t>
+  </si>
+  <si>
+    <t>Z8</t>
+  </si>
+  <si>
+    <t>Z16</t>
+  </si>
+  <si>
+    <t>Z24</t>
+  </si>
+  <si>
+    <t>Z32</t>
+  </si>
+  <si>
+    <t>Z7</t>
+  </si>
+  <si>
+    <t>Z15</t>
+  </si>
+  <si>
+    <t>Z23</t>
+  </si>
+  <si>
+    <t>Z31</t>
+  </si>
+  <si>
+    <t>Z6</t>
+  </si>
+  <si>
+    <t>Z14</t>
+  </si>
+  <si>
+    <t>Z22</t>
+  </si>
+  <si>
+    <t>Z30</t>
+  </si>
+  <si>
+    <t>Z5</t>
+  </si>
+  <si>
+    <t>Z13</t>
+  </si>
+  <si>
+    <t>Z21</t>
+  </si>
+  <si>
+    <t>Z29</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z9</t>
+  </si>
+  <si>
+    <t>Z17</t>
+  </si>
+  <si>
+    <t>Z25</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z10</t>
+  </si>
+  <si>
+    <t>Z18</t>
+  </si>
+  <si>
+    <t>Z26</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>Z11</t>
+  </si>
+  <si>
+    <t>Z19</t>
+  </si>
+  <si>
+    <t>Z27</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>Z12</t>
+  </si>
+  <si>
+    <t>Z20</t>
+  </si>
+  <si>
+    <t>Z28</t>
+  </si>
+  <si>
+    <t>AA8</t>
+  </si>
+  <si>
+    <t>AA16</t>
+  </si>
+  <si>
+    <t>AA24</t>
+  </si>
+  <si>
+    <t>AA32</t>
+  </si>
+  <si>
+    <t>AA7</t>
+  </si>
+  <si>
+    <t>AA15</t>
+  </si>
+  <si>
+    <t>AA23</t>
+  </si>
+  <si>
+    <t>AA31</t>
+  </si>
+  <si>
+    <t>AA6</t>
+  </si>
+  <si>
+    <t>AA14</t>
+  </si>
+  <si>
+    <t>AA22</t>
+  </si>
+  <si>
+    <t>AA30</t>
+  </si>
+  <si>
+    <t>AA5</t>
+  </si>
+  <si>
+    <t>AA13</t>
+  </si>
+  <si>
+    <t>AA21</t>
+  </si>
+  <si>
+    <t>AA29</t>
+  </si>
+  <si>
+    <t>AA4</t>
+  </si>
+  <si>
+    <t>AA12</t>
+  </si>
+  <si>
+    <t>AA20</t>
+  </si>
+  <si>
+    <t>AA28</t>
+  </si>
+  <si>
+    <t>AA3</t>
+  </si>
+  <si>
+    <t>AA11</t>
+  </si>
+  <si>
+    <t>AA19</t>
+  </si>
+  <si>
+    <t>AA27</t>
+  </si>
+  <si>
+    <t>AA2</t>
+  </si>
+  <si>
+    <t>AA10</t>
+  </si>
+  <si>
+    <t>AA18</t>
+  </si>
+  <si>
+    <t>AA26</t>
+  </si>
+  <si>
+    <t>AA1</t>
+  </si>
+  <si>
+    <t>AA9</t>
+  </si>
+  <si>
+    <t>AA17</t>
+  </si>
+  <si>
+    <t>AA25</t>
+  </si>
+  <si>
+    <t>AB1</t>
+  </si>
+  <si>
+    <t>AB9</t>
+  </si>
+  <si>
+    <t>AB17</t>
+  </si>
+  <si>
+    <t>AB25</t>
+  </si>
+  <si>
+    <t>AB2</t>
+  </si>
+  <si>
+    <t>AB10</t>
+  </si>
+  <si>
+    <t>AB18</t>
+  </si>
+  <si>
+    <t>AB26</t>
+  </si>
+  <si>
+    <t>AB3</t>
+  </si>
+  <si>
+    <t>AB11</t>
+  </si>
+  <si>
+    <t>AB19</t>
+  </si>
+  <si>
+    <t>AB27</t>
+  </si>
+  <si>
+    <t>AB4</t>
+  </si>
+  <si>
+    <t>AB12</t>
+  </si>
+  <si>
+    <t>AB20</t>
+  </si>
+  <si>
+    <t>AB28</t>
+  </si>
+  <si>
+    <t>AB5</t>
+  </si>
+  <si>
+    <t>AB13</t>
+  </si>
+  <si>
+    <t>AB21</t>
+  </si>
+  <si>
+    <t>AB29</t>
+  </si>
+  <si>
+    <t>AB6</t>
+  </si>
+  <si>
+    <t>AB14</t>
+  </si>
+  <si>
+    <t>AB22</t>
+  </si>
+  <si>
+    <t>AB30</t>
+  </si>
+  <si>
+    <t>AB7</t>
+  </si>
+  <si>
+    <t>AB15</t>
+  </si>
+  <si>
+    <t>AB23</t>
+  </si>
+  <si>
+    <t>AB31</t>
+  </si>
+  <si>
+    <t>AB8</t>
+  </si>
+  <si>
+    <t>AB16</t>
+  </si>
+  <si>
+    <t>AB24</t>
+  </si>
+  <si>
+    <t>AB32</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC9</t>
+  </si>
+  <si>
+    <t>AC17</t>
+  </si>
+  <si>
+    <t>AC25</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>AC10</t>
+  </si>
+  <si>
+    <t>AC18</t>
+  </si>
+  <si>
+    <t>AC26</t>
+  </si>
+  <si>
+    <t>AC3</t>
+  </si>
+  <si>
+    <t>AC11</t>
+  </si>
+  <si>
+    <t>AC19</t>
+  </si>
+  <si>
+    <t>AC27</t>
+  </si>
+  <si>
+    <t>AC4</t>
+  </si>
+  <si>
+    <t>AC12</t>
+  </si>
+  <si>
+    <t>AC20</t>
+  </si>
+  <si>
+    <t>AC28</t>
+  </si>
+  <si>
+    <t>AC5</t>
+  </si>
+  <si>
+    <t>AC13</t>
+  </si>
+  <si>
+    <t>AC21</t>
+  </si>
+  <si>
+    <t>AC29</t>
+  </si>
+  <si>
+    <t>AC6</t>
+  </si>
+  <si>
+    <t>AC14</t>
+  </si>
+  <si>
+    <t>AC22</t>
+  </si>
+  <si>
+    <t>AC30</t>
+  </si>
+  <si>
+    <t>AC7</t>
+  </si>
+  <si>
+    <t>AC15</t>
+  </si>
+  <si>
+    <t>AC23</t>
+  </si>
+  <si>
+    <t>AC31</t>
+  </si>
+  <si>
+    <t>AC8</t>
+  </si>
+  <si>
+    <t>AC16</t>
+  </si>
+  <si>
+    <t>AC24</t>
+  </si>
+  <si>
+    <t>AC32</t>
+  </si>
+  <si>
+    <t>AD6</t>
+  </si>
+  <si>
+    <t>AD14</t>
+  </si>
+  <si>
+    <t>AD22</t>
+  </si>
+  <si>
+    <t>AD30</t>
+  </si>
+  <si>
+    <t>AD5</t>
+  </si>
+  <si>
+    <t>AD13</t>
+  </si>
+  <si>
+    <t>AD21</t>
+  </si>
+  <si>
+    <t>AD29</t>
+  </si>
+  <si>
+    <t>AD7</t>
+  </si>
+  <si>
+    <t>AD15</t>
+  </si>
+  <si>
+    <t>AD23</t>
+  </si>
+  <si>
+    <t>AD31</t>
+  </si>
+  <si>
+    <t>AD8</t>
+  </si>
+  <si>
+    <t>AD16</t>
+  </si>
+  <si>
+    <t>AD24</t>
+  </si>
+  <si>
+    <t>AD32</t>
+  </si>
+  <si>
+    <t>AD4</t>
+  </si>
+  <si>
+    <t>AD12</t>
+  </si>
+  <si>
+    <t>AD20</t>
+  </si>
+  <si>
+    <t>AD28</t>
+  </si>
+  <si>
+    <t>AD3</t>
+  </si>
+  <si>
+    <t>AD11</t>
+  </si>
+  <si>
+    <t>AD19</t>
+  </si>
+  <si>
+    <t>AD27</t>
+  </si>
+  <si>
+    <t>AD2</t>
+  </si>
+  <si>
+    <t>AD10</t>
+  </si>
+  <si>
+    <t>AD18</t>
+  </si>
+  <si>
+    <t>AD26</t>
+  </si>
+  <si>
+    <t>AD1</t>
+  </si>
+  <si>
+    <t>AD9</t>
+  </si>
+  <si>
+    <t>AD17</t>
+  </si>
+  <si>
+    <t>AD25</t>
+  </si>
+  <si>
+    <t>AE5</t>
+  </si>
+  <si>
+    <t>AE13</t>
+  </si>
+  <si>
+    <t>AE21</t>
+  </si>
+  <si>
+    <t>AE29</t>
+  </si>
+  <si>
+    <t>AE6</t>
+  </si>
+  <si>
+    <t>AE14</t>
+  </si>
+  <si>
+    <t>AE22</t>
+  </si>
+  <si>
+    <t>AE30</t>
+  </si>
+  <si>
+    <t>AE3</t>
+  </si>
+  <si>
+    <t>AE11</t>
+  </si>
+  <si>
+    <t>AE19</t>
+  </si>
+  <si>
+    <t>AE27</t>
+  </si>
+  <si>
+    <t>AE2</t>
+  </si>
+  <si>
+    <t>AE10</t>
+  </si>
+  <si>
+    <t>AE18</t>
+  </si>
+  <si>
+    <t>AE26</t>
+  </si>
+  <si>
+    <t>AE1</t>
+  </si>
+  <si>
+    <t>AE9</t>
+  </si>
+  <si>
+    <t>AE17</t>
+  </si>
+  <si>
+    <t>AE25</t>
+  </si>
+  <si>
+    <t>AE7</t>
+  </si>
+  <si>
+    <t>AE15</t>
+  </si>
+  <si>
+    <t>AE23</t>
+  </si>
+  <si>
+    <t>AE31</t>
+  </si>
+  <si>
+    <t>AE4</t>
+  </si>
+  <si>
+    <t>AE12</t>
+  </si>
+  <si>
+    <t>AE20</t>
+  </si>
+  <si>
+    <t>AE28</t>
+  </si>
+  <si>
+    <t>AE8</t>
+  </si>
+  <si>
+    <t>AE16</t>
+  </si>
+  <si>
+    <t>AE24</t>
+  </si>
+  <si>
+    <t>AE32</t>
+  </si>
+  <si>
+    <t>AF8</t>
+  </si>
+  <si>
+    <t>AF16</t>
+  </si>
+  <si>
+    <t>AF24</t>
+  </si>
+  <si>
+    <t>AF32</t>
+  </si>
+  <si>
+    <t>AF5</t>
+  </si>
+  <si>
+    <t>AF13</t>
+  </si>
+  <si>
+    <t>AF21</t>
+  </si>
+  <si>
+    <t>AF29</t>
+  </si>
+  <si>
+    <t>AF7</t>
+  </si>
+  <si>
+    <t>AF15</t>
+  </si>
+  <si>
+    <t>AF23</t>
+  </si>
+  <si>
+    <t>AF31</t>
+  </si>
+  <si>
+    <t>AF4</t>
+  </si>
+  <si>
+    <t>AF12</t>
+  </si>
+  <si>
+    <t>AF20</t>
+  </si>
+  <si>
+    <t>AF28</t>
+  </si>
+  <si>
+    <t>AF1</t>
+  </si>
+  <si>
+    <t>AF9</t>
+  </si>
+  <si>
+    <t>AF17</t>
+  </si>
+  <si>
+    <t>AF25</t>
+  </si>
+  <si>
+    <t>AF2</t>
+  </si>
+  <si>
+    <t>AF10</t>
+  </si>
+  <si>
+    <t>AF18</t>
+  </si>
+  <si>
+    <t>AF26</t>
+  </si>
+  <si>
+    <t>AF3</t>
+  </si>
+  <si>
+    <t>AF11</t>
+  </si>
+  <si>
+    <t>AF19</t>
+  </si>
+  <si>
+    <t>AF27</t>
+  </si>
+  <si>
+    <t>AF6</t>
+  </si>
+  <si>
+    <t>AF14</t>
+  </si>
+  <si>
+    <t>AF22</t>
+  </si>
+  <si>
+    <t>AF30</t>
+  </si>
+  <si>
+    <t>AG8</t>
+  </si>
+  <si>
+    <t>AG16</t>
+  </si>
+  <si>
+    <t>AG24</t>
+  </si>
+  <si>
+    <t>AG32</t>
+  </si>
+  <si>
+    <t>AG5</t>
+  </si>
+  <si>
+    <t>AG13</t>
+  </si>
+  <si>
+    <t>AG21</t>
+  </si>
+  <si>
+    <t>AG29</t>
+  </si>
+  <si>
+    <t>AG7</t>
+  </si>
+  <si>
+    <t>AG15</t>
+  </si>
+  <si>
+    <t>AG23</t>
+  </si>
+  <si>
+    <t>AG31</t>
+  </si>
+  <si>
+    <t>AG4</t>
+  </si>
+  <si>
+    <t>AG12</t>
+  </si>
+  <si>
+    <t>AG20</t>
+  </si>
+  <si>
+    <t>AG28</t>
+  </si>
+  <si>
+    <t>AG1</t>
+  </si>
+  <si>
+    <t>AG9</t>
+  </si>
+  <si>
+    <t>AG17</t>
+  </si>
+  <si>
+    <t>AG25</t>
+  </si>
+  <si>
+    <t>AG2</t>
+  </si>
+  <si>
+    <t>AG10</t>
+  </si>
+  <si>
+    <t>AG18</t>
+  </si>
+  <si>
+    <t>AG26</t>
+  </si>
+  <si>
+    <t>AG3</t>
+  </si>
+  <si>
+    <t>AG11</t>
+  </si>
+  <si>
+    <t>AG19</t>
+  </si>
+  <si>
+    <t>AG27</t>
+  </si>
+  <si>
+    <t>AG6</t>
+  </si>
+  <si>
+    <t>AG14</t>
+  </si>
+  <si>
+    <t>AG22</t>
+  </si>
+  <si>
+    <t>AG30</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#25</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2406,11 +3878,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2737,18 +4215,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -2777,8 +4256,37 @@
       <c r="J1" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>261</v>
       </c>
@@ -2807,8 +4315,37 @@
       <c r="J2" s="1" t="s">
         <v>364</v>
       </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>876</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>262</v>
       </c>
@@ -2837,8 +4374,37 @@
       <c r="J3" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>844</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>263</v>
       </c>
@@ -2867,8 +4433,37 @@
       <c r="J4" s="1" t="s">
         <v>368</v>
       </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>880</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>264</v>
       </c>
@@ -2897,8 +4492,37 @@
       <c r="J5" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>848</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>265</v>
       </c>
@@ -2927,8 +4551,37 @@
       <c r="J6" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>884</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>266</v>
       </c>
@@ -2957,8 +4610,37 @@
       <c r="J7" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>852</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>267</v>
       </c>
@@ -2987,8 +4669,37 @@
       <c r="J8" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>888</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>268</v>
       </c>
@@ -3017,8 +4728,37 @@
       <c r="J9" s="1" t="s">
         <v>344</v>
       </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>856</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>269</v>
       </c>
@@ -3047,8 +4787,37 @@
       <c r="J10" s="1" t="s">
         <v>380</v>
       </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>892</v>
+      </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>270</v>
       </c>
@@ -3077,8 +4846,37 @@
       <c r="J11" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>271</v>
       </c>
@@ -3107,8 +4905,37 @@
       <c r="J12" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>864</v>
+      </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>272</v>
       </c>
@@ -3137,8 +4964,37 @@
       <c r="J13" s="1" t="s">
         <v>384</v>
       </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>896</v>
+      </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>273</v>
       </c>
@@ -3167,8 +5023,37 @@
       <c r="J14" s="1" t="s">
         <v>356</v>
       </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>868</v>
+      </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
         <v>274</v>
       </c>
@@ -3197,8 +5082,37 @@
       <c r="J15" s="1" t="s">
         <v>360</v>
       </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>872</v>
+      </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>275</v>
       </c>
@@ -3227,8 +5141,37 @@
       <c r="J16" s="1" t="s">
         <v>396</v>
       </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>908</v>
+      </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>276</v>
       </c>
@@ -3257,8 +5200,37 @@
       <c r="J17" s="1" t="s">
         <v>388</v>
       </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>900</v>
+      </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>277</v>
       </c>
@@ -3287,8 +5259,37 @@
       <c r="J18" s="1" t="s">
         <v>392</v>
       </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>904</v>
+      </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>278</v>
       </c>
@@ -3317,8 +5318,37 @@
       <c r="J19" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>912</v>
+      </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
         <v>279</v>
       </c>
@@ -3347,8 +5377,37 @@
       <c r="J20" s="1" t="s">
         <v>404</v>
       </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
         <v>280</v>
       </c>
@@ -3377,8 +5436,37 @@
       <c r="J21" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>920</v>
+      </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
         <v>281</v>
       </c>
@@ -3407,8 +5495,37 @@
       <c r="J22" s="1" t="s">
         <v>412</v>
       </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>924</v>
+      </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -3437,8 +5554,37 @@
       <c r="J23" s="1" t="s">
         <v>416</v>
       </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>928</v>
+      </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
         <v>283</v>
       </c>
@@ -3467,8 +5613,37 @@
       <c r="J24" s="1" t="s">
         <v>420</v>
       </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>932</v>
+      </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
         <v>284</v>
       </c>
@@ -3497,8 +5672,37 @@
       <c r="J25" s="1" t="s">
         <v>424</v>
       </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>936</v>
+      </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>285</v>
       </c>
@@ -3527,8 +5731,37 @@
       <c r="J26" s="1" t="s">
         <v>428</v>
       </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>940</v>
+      </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
         <v>286</v>
       </c>
@@ -3557,8 +5790,37 @@
       <c r="J27" s="1" t="s">
         <v>432</v>
       </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>944</v>
+      </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
         <v>287</v>
       </c>
@@ -3587,8 +5849,37 @@
       <c r="J28" s="1" t="s">
         <v>436</v>
       </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>948</v>
+      </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
         <v>288</v>
       </c>
@@ -3617,8 +5908,37 @@
       <c r="J29" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
         <v>289</v>
       </c>
@@ -3647,8 +5967,37 @@
       <c r="J30" s="1" t="s">
         <v>444</v>
       </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>956</v>
+      </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
         <v>290</v>
       </c>
@@ -3677,8 +6026,37 @@
       <c r="J31" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>960</v>
+      </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
         <v>291</v>
       </c>
@@ -3707,8 +6085,37 @@
       <c r="J32" s="1" t="s">
         <v>452</v>
       </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>964</v>
+      </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
         <v>292</v>
       </c>
@@ -3737,8 +6144,37 @@
       <c r="J33" s="1" t="s">
         <v>456</v>
       </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>968</v>
+      </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:21">
       <c r="A34" s="1" t="s">
         <v>293</v>
       </c>
@@ -3767,8 +6203,37 @@
       <c r="J34" s="1" t="s">
         <v>460</v>
       </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>972</v>
+      </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
         <v>294</v>
       </c>
@@ -3797,8 +6262,37 @@
       <c r="J35" s="1" t="s">
         <v>464</v>
       </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>976</v>
+      </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
         <v>295</v>
       </c>
@@ -3827,8 +6321,37 @@
       <c r="J36" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>980</v>
+      </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
         <v>296</v>
       </c>
@@ -3857,8 +6380,37 @@
       <c r="J37" s="1" t="s">
         <v>472</v>
       </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>984</v>
+      </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
         <v>297</v>
       </c>
@@ -3887,8 +6439,37 @@
       <c r="J38" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
         <v>298</v>
       </c>
@@ -3917,8 +6498,37 @@
       <c r="J39" s="1" t="s">
         <v>480</v>
       </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>992</v>
+      </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
         <v>299</v>
       </c>
@@ -3947,8 +6557,37 @@
       <c r="J40" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
         <v>300</v>
       </c>
@@ -3977,8 +6616,37 @@
       <c r="J41" s="1" t="s">
         <v>488</v>
       </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
         <v>301</v>
       </c>
@@ -4007,8 +6675,37 @@
       <c r="J42" s="1" t="s">
         <v>492</v>
       </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
         <v>302</v>
       </c>
@@ -4037,8 +6734,37 @@
       <c r="J43" s="1" t="s">
         <v>496</v>
       </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>1008</v>
+      </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:21">
       <c r="A44" s="1" t="s">
         <v>303</v>
       </c>
@@ -4067,8 +6793,37 @@
       <c r="J44" s="1" t="s">
         <v>524</v>
       </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>1036</v>
+      </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:21">
       <c r="A45" s="1" t="s">
         <v>304</v>
       </c>
@@ -4097,8 +6852,37 @@
       <c r="J45" s="1" t="s">
         <v>500</v>
       </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:21">
       <c r="A46" s="1" t="s">
         <v>305</v>
       </c>
@@ -4127,8 +6911,37 @@
       <c r="J46" s="1" t="s">
         <v>504</v>
       </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:21">
       <c r="A47" s="1" t="s">
         <v>306</v>
       </c>
@@ -4157,8 +6970,37 @@
       <c r="J47" s="1" t="s">
         <v>528</v>
       </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>1040</v>
+      </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:21">
       <c r="A48" s="1" t="s">
         <v>307</v>
       </c>
@@ -4187,8 +7029,37 @@
       <c r="J48" s="1" t="s">
         <v>508</v>
       </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:21">
       <c r="A49" s="1" t="s">
         <v>308</v>
       </c>
@@ -4217,8 +7088,37 @@
       <c r="J49" s="1" t="s">
         <v>512</v>
       </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:21">
       <c r="A50" s="1" t="s">
         <v>309</v>
       </c>
@@ -4247,8 +7147,37 @@
       <c r="J50" s="1" t="s">
         <v>516</v>
       </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>1028</v>
+      </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:21">
       <c r="A51" s="1" t="s">
         <v>310</v>
       </c>
@@ -4277,8 +7206,37 @@
       <c r="J51" s="1" t="s">
         <v>520</v>
       </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>1032</v>
+      </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:21">
       <c r="A52" s="1" t="s">
         <v>311</v>
       </c>
@@ -4307,8 +7265,37 @@
       <c r="J52" s="1" t="s">
         <v>556</v>
       </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>1036</v>
+      </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:21">
       <c r="A53" s="1" t="s">
         <v>312</v>
       </c>
@@ -4337,8 +7324,37 @@
       <c r="J53" s="1" t="s">
         <v>560</v>
       </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>1040</v>
+      </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:21">
       <c r="A54" s="1" t="s">
         <v>313</v>
       </c>
@@ -4367,8 +7383,37 @@
       <c r="J54" s="1" t="s">
         <v>532</v>
       </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>1044</v>
+      </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:21">
       <c r="A55" s="1" t="s">
         <v>314</v>
       </c>
@@ -4397,8 +7442,37 @@
       <c r="J55" s="1" t="s">
         <v>564</v>
       </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>1044</v>
+      </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:21">
       <c r="A56" s="1" t="s">
         <v>315</v>
       </c>
@@ -4427,8 +7501,37 @@
       <c r="J56" s="1" t="s">
         <v>568</v>
       </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>1048</v>
+      </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:21">
       <c r="A57" s="1" t="s">
         <v>316</v>
       </c>
@@ -4457,8 +7560,37 @@
       <c r="J57" s="1" t="s">
         <v>536</v>
       </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>1048</v>
+      </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:21">
       <c r="A58" s="1" t="s">
         <v>317</v>
       </c>
@@ -4487,8 +7619,37 @@
       <c r="J58" s="1" t="s">
         <v>572</v>
       </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>1064</v>
+      </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:21">
       <c r="A59" s="1" t="s">
         <v>318</v>
       </c>
@@ -4517,8 +7678,37 @@
       <c r="J59" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:21">
       <c r="A60" s="1" t="s">
         <v>319</v>
       </c>
@@ -4547,8 +7737,37 @@
       <c r="J60" s="1" t="s">
         <v>580</v>
       </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>1056</v>
+      </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:21">
       <c r="A61" s="1" t="s">
         <v>320</v>
       </c>
@@ -4577,8 +7796,37 @@
       <c r="J61" s="1" t="s">
         <v>584</v>
       </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>1052</v>
+      </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:21">
       <c r="A62" s="1" t="s">
         <v>321</v>
       </c>
@@ -4607,8 +7855,37 @@
       <c r="J62" s="1" t="s">
         <v>540</v>
       </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>1052</v>
+      </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:21">
       <c r="A63" s="1" t="s">
         <v>322</v>
       </c>
@@ -4637,8 +7914,37 @@
       <c r="J63" s="1" t="s">
         <v>544</v>
       </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>1056</v>
+      </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:21">
       <c r="A64" s="1" t="s">
         <v>323</v>
       </c>
@@ -4667,8 +7973,37 @@
       <c r="J64" s="1" t="s">
         <v>548</v>
       </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:21">
       <c r="A65" s="1" t="s">
         <v>324</v>
       </c>
@@ -4696,6 +8031,35 @@
       </c>
       <c r="J65" s="1" t="s">
         <v>552</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="L65" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -4704,6 +8068,6 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>